--- a/project_vtiger/src/test/resources/TEST_DATA.xlsx
+++ b/project_vtiger/src/test/resources/TEST_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarun\eclipse-workspace\project_vtiger\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarun\git\repository\project_vtiger\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA83FD9-C8D8-41E1-89C9-86B941CD20B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8234C52-2211-444E-8CC7-CCFC161A4ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sales_Order" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
     <sheet name="Product" sheetId="4" r:id="rId5"/>
+    <sheet name="opportunties" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="290">
   <si>
     <t>Organization Name</t>
   </si>
@@ -752,6 +753,153 @@
   </si>
   <si>
     <t>zenith.pdf</t>
+  </si>
+  <si>
+    <t>Opportunity Name</t>
+  </si>
+  <si>
+    <t>Related To</t>
+  </si>
+  <si>
+    <t>Amount ($)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Expected Close Date</t>
+  </si>
+  <si>
+    <t>Next Step</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Sales Stage</t>
+  </si>
+  <si>
+    <t>Campaign Source</t>
+  </si>
+  <si>
+    <t>Probability (%)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>CRM Automation Testing</t>
+  </si>
+  <si>
+    <t>Organizations</t>
+  </si>
+  <si>
+    <t>TechNova Solutions</t>
+  </si>
+  <si>
+    <t>New Business</t>
+  </si>
+  <si>
+    <t>Requirement gathering call</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Prospecting</t>
+  </si>
+  <si>
+    <t>Website Leads</t>
+  </si>
+  <si>
+    <t>Automation testing requirement for CRM application using Selenium Java</t>
+  </si>
+  <si>
+    <t>E-commerce Manual Testing</t>
+  </si>
+  <si>
+    <t>ShopEase Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Existing Business</t>
+  </si>
+  <si>
+    <t>Email Campaign</t>
+  </si>
+  <si>
+    <t>Share test plan</t>
+  </si>
+  <si>
+    <t>Needs Analysis</t>
+  </si>
+  <si>
+    <t>Festive Sale Campaign</t>
+  </si>
+  <si>
+    <t>Manual testing support for e-commerce web application</t>
+  </si>
+  <si>
+    <t>Mobile App QA Project</t>
+  </si>
+  <si>
+    <t>Appify Systems</t>
+  </si>
+  <si>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>Demo of testing approach</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Partner Referral</t>
+  </si>
+  <si>
+    <t>QA testing for Android and iOS mobile applications</t>
+  </si>
+  <si>
+    <t>Regression Testing Support</t>
+  </si>
+  <si>
+    <t>FinTrust Corp</t>
+  </si>
+  <si>
+    <t>Cold Call</t>
+  </si>
+  <si>
+    <t>Contract discussion</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>Q1 Sales Outreach</t>
+  </si>
+  <si>
+    <t>Regression and sanity testing support for banking application</t>
+  </si>
+  <si>
+    <t>Performance Testing Deal</t>
+  </si>
+  <si>
+    <t>SpeedNet Ltd</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Tool discussion meeting</t>
+  </si>
+  <si>
+    <t>LinkedIn Campaign</t>
+  </si>
+  <si>
+    <t>Performance and load testing using JMeter</t>
   </si>
 </sst>
 </file>
@@ -831,7 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,6 +1024,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2132,7 +2283,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2167,7 +2318,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -2202,7 +2353,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2258,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2327,4 +2478,279 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC61EACE-CB6E-4D3B-AE4C-068FEF00CDB6}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="13" max="13" width="34.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="13">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17">
+        <v>46032</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="13">
+        <v>25</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8000</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="17">
+        <v>46037</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="13">
+        <v>40</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="13">
+        <v>12000</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="17">
+        <v>46042</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="13">
+        <v>35</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="13">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="17">
+        <v>46047</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="13">
+        <v>60</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="13">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="17">
+        <v>46054</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="L6" s="13">
+        <v>20</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>